--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338F2E9-BD0C-4B61-91D9-E890F36C22F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C919D-EA25-4D9B-A81A-90610E5FDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>نام</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>آریان</t>
+  </si>
+  <si>
+    <t>جلیلی</t>
+  </si>
+  <si>
+    <t>امیرمحمد</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +667,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40023841054619</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
     <sortCondition ref="A2:A12"/>

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C919D-EA25-4D9B-A81A-90610E5FDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272FF8E-E6FF-46EC-B09B-79F6CB348DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>نام</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>امیرمحمد</t>
+  </si>
+  <si>
+    <t>غفاری</t>
+  </si>
+  <si>
+    <t>ایلیا</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,13 +576,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
-        <v>40023841054579</v>
+        <v>40023841054619</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -587,13 +593,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>40023841054573</v>
+        <v>40023841054579</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -604,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>40023841054605</v>
+        <v>40023841054573</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -621,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
-        <v>40023841054571</v>
+        <v>40023841054618</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -638,13 +644,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>40023841054601</v>
+        <v>40023841054605</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -655,35 +661,55 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40023841054571</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40023841054601</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>40023841054565</v>
       </c>
-      <c r="F12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40023841054619</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
-    <sortCondition ref="A2:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272FF8E-E6FF-46EC-B09B-79F6CB348DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C7517-0FA7-45C5-ADB1-8B599E3C61F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>نام</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>ایلیا</t>
+  </si>
+  <si>
+    <t>سید محمدرضا</t>
+  </si>
+  <si>
+    <t>کاظمی</t>
+  </si>
+  <si>
+    <t>سبحان</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +526,7 @@
         <v>40023841054582</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,6 +713,40 @@
         <v>40023841054565</v>
       </c>
       <c r="F14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40023841054649</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40023841054607</v>
+      </c>
+      <c r="F16" s="1">
         <v>100</v>
       </c>
     </row>

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C7517-0FA7-45C5-ADB1-8B599E3C61F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F63244-59B6-4F38-8F66-688C4A5A9EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>نام</t>
   </si>
@@ -111,9 +119,6 @@
     <t>آریان</t>
   </si>
   <si>
-    <t>جلیلی</t>
-  </si>
-  <si>
     <t>امیرمحمد</t>
   </si>
   <si>
@@ -130,6 +135,12 @@
   </si>
   <si>
     <t>سبحان</t>
+  </si>
+  <si>
+    <t>ت2</t>
+  </si>
+  <si>
+    <t>جلالی</t>
   </si>
 </sst>
 </file>
@@ -459,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +486,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,8 +505,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -508,11 +522,18 @@
       <c r="D2" s="2">
         <v>40023841054576</v>
       </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(F2:G2)</f>
+        <v>50</v>
+      </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -525,11 +546,18 @@
       <c r="D3" s="2">
         <v>40023841054582</v>
       </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E16" si="0">AVERAGE(F3:G3)</f>
+        <v>87.5</v>
+      </c>
       <c r="F3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -542,11 +570,18 @@
       <c r="D4" s="2">
         <v>40023841054598</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -559,11 +594,18 @@
       <c r="D5" s="2">
         <v>40023841054594</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -576,28 +618,42 @@
       <c r="D6" s="2">
         <v>40023841054429</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>40023841054619</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -610,11 +666,18 @@
       <c r="D8" s="2">
         <v>40023841054579</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -627,28 +690,42 @@
       <c r="D9" s="2">
         <v>40023841054573</v>
       </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>40023841054618</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -661,11 +738,18 @@
       <c r="D11" s="2">
         <v>40023841054605</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -678,11 +762,18 @@
       <c r="D12" s="2">
         <v>40023841054571</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -695,11 +786,18 @@
       <c r="D13" s="2">
         <v>40023841054601</v>
       </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -712,11 +810,18 @@
       <c r="D14" s="2">
         <v>40023841054565</v>
       </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -724,29 +829,43 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>40023841054649</v>
       </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="F15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>40023841054607</v>
       </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
         <v>100</v>
       </c>
     </row>

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F63244-59B6-4F38-8F66-688C4A5A9EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFF2DA-03D1-4808-8B83-4CC5E0DFB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>نام</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>جلالی</t>
+  </si>
+  <si>
+    <t>ت3</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -508,8 +511,11 @@
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -523,8 +529,8 @@
         <v>40023841054576</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(F2:G2)</f>
-        <v>50</v>
+        <f>AVERAGE(F2:H2)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -532,8 +538,11 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -547,8 +556,8 @@
         <v>40023841054582</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E16" si="0">AVERAGE(F3:G3)</f>
-        <v>87.5</v>
+        <f t="shared" ref="E3:E16" si="0">AVERAGE(F3:H3)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -556,8 +565,11 @@
       <c r="G3" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -572,7 +584,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -580,8 +592,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -596,7 +611,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -604,8 +619,11 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -620,7 +638,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -628,8 +646,11 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -644,7 +665,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -652,8 +673,11 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -676,8 +700,11 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -692,7 +719,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -700,8 +727,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -716,7 +746,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -724,8 +754,11 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -740,7 +773,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -748,8 +781,11 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -764,16 +800,19 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -788,7 +827,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -796,8 +835,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -812,7 +854,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -820,8 +862,11 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -836,7 +881,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -844,8 +889,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -860,13 +908,16 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EFF2DA-03D1-4808-8B83-4CC5E0DFB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685E891-E652-4D06-870B-E7A64E4E66F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>نام</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -755,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">

--- a/HomeWork-scores.xlsx
+++ b/HomeWork-scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\TA\HomeWork-scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C462626-391B-46E2-AC24-1DE5EDA327E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E55071-59B6-4195-9EBB-92BF93A38971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="تمارین استاد" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>نام</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>پویا</t>
+  </si>
+  <si>
+    <t>جوکار</t>
+  </si>
+  <si>
+    <t>محمدمهدی</t>
   </si>
 </sst>
 </file>
@@ -512,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +761,12 @@
       <c r="F10" s="1">
         <v>100</v>
       </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -925,7 +937,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -956,41 +968,41 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4">
-        <v>40023841054565</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40023841054631</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
-        <v>40023841054631</v>
-      </c>
-      <c r="H21" s="1">
+        <v>40023840401017</v>
+      </c>
+      <c r="G21" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FFADB6-8DED-4A6F-9194-6ABAED39D4B9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
